--- a/data/trans_orig/P14A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28271316-BA62-43C9-AA14-E214FB320ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBE9B04-438B-4732-8DAF-504ABB0CD571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ED4A526-9AA0-495A-A2E5-D9779021089F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0596DA9F-5643-46F0-94C7-3C8795CC8951}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -117,10 +117,10 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -129,19 +129,19 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -150,10 +150,10 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,49 +162,49 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>93,98%</t>
+    <t>93,65%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,02%</t>
+    <t>6,35%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -216,13 +216,13 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>89,86%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>95,01%</t>
+    <t>93,13%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -231,13 +231,13 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>10,14%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>4,99%</t>
+    <t>6,87%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -261,7 +261,7 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>93,69%</t>
+    <t>94,63%</t>
   </si>
   <si>
     <t>98,68%</t>
@@ -276,7 +276,7 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -294,19 +294,19 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>94,51%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>96,45%</t>
+    <t>96,6%</t>
   </si>
   <si>
     <t>99,59%</t>
@@ -315,13 +315,13 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -330,22 +330,22 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,4%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,5%</t>
+    <t>97,61%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -354,115 +354,115 @@
     <t>98,67%</t>
   </si>
   <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>95,61%</t>
   </si>
   <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -501,13 +501,13 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,65%</t>
+    <t>89,4%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,61%</t>
+    <t>93,37%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -516,22 +516,22 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,35%</t>
+    <t>10,6%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,39%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -540,19 +540,19 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -561,10 +561,10 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -573,19 +573,16 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>84,03%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -594,85 +591,79 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>15,97%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>94,77%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>93,67%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>5,23%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>96,99%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,33%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,5%</t>
+    <t>96,65%</t>
   </si>
   <si>
     <t>98,48%</t>
@@ -681,13 +672,16 @@
     <t>1,6%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>3,01%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,67%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -696,7 +690,7 @@
     <t>1,52%</t>
   </si>
   <si>
-    <t>3,5%</t>
+    <t>3,35%</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8770084-CA3E-4B21-B066-A192FBDC30F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2853E42-DFE9-45A1-984F-125368289DEA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2621,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C1246D-B368-4B42-A4CE-EDD59A68EC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED6B50-49AC-4FAC-8623-10F9E199CFB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,10 +2769,10 @@
         <v>67535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2796,13 +2790,13 @@
         <v>1403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2817,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2826,13 +2820,13 @@
         <v>1403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,10 +2894,10 @@
         <v>81695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2915,13 +2909,13 @@
         <v>111335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -2930,13 +2924,13 @@
         <v>193030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,7 +2945,7 @@
         <v>1997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
@@ -3696,7 +3690,7 @@
         <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -3705,13 +3699,13 @@
         <v>186603</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3741,13 +3735,13 @@
         <v>6590</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3756,13 +3750,13 @@
         <v>6590</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,10 +3824,10 @@
         <v>127575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3845,13 +3839,13 @@
         <v>154351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -3860,13 +3854,13 @@
         <v>281926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3875,13 @@
         <v>1938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3896,13 +3890,13 @@
         <v>4475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3911,13 +3905,13 @@
         <v>6413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3979,13 @@
         <v>505929</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>523</v>
@@ -4000,13 +3994,13 @@
         <v>610570</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="M28" s="7">
         <v>1023</v>
@@ -4015,13 +4009,13 @@
         <v>1116499</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4030,13 @@
         <v>8245</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -4051,13 +4045,13 @@
         <v>18833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4066,13 +4060,13 @@
         <v>27078</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A03-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A03-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBE9B04-438B-4732-8DAF-504ABB0CD571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EE2415-37FC-4C4A-9F8F-354AEB28D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0596DA9F-5643-46F0-94C7-3C8795CC8951}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0C196C69-B70F-45AE-8DFB-C2B86D9AB7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="212">
   <si>
     <t>Población que recibe medicación o terapia por hipertensión en 2012 (Tasa respuesta: 18,63%)</t>
   </si>
@@ -117,10 +117,10 @@
     <t>94,9%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>97,3%</t>
@@ -129,7 +129,7 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>94,03%</t>
+    <t>93,67%</t>
   </si>
   <si>
     <t>99,28%</t>
@@ -138,10 +138,10 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>2,7%</t>
@@ -153,7 +153,7 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>5,97%</t>
+    <t>6,33%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -162,49 +162,43 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>93,65%</t>
+    <t>93,33%</t>
   </si>
   <si>
     <t>95,1%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>98,34%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,35%</t>
+    <t>6,67%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -216,13 +210,13 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>89,86%</t>
+    <t>89,72%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>93,13%</t>
+    <t>93,06%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -231,13 +225,13 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>10,14%</t>
+    <t>10,28%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>6,87%</t>
+    <t>6,94%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -261,7 +255,7 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>94,63%</t>
+    <t>94,65%</t>
   </si>
   <si>
     <t>98,68%</t>
@@ -270,13 +264,13 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,37%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -285,7 +279,7 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -294,13 +288,13 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>95,32%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>94,51%</t>
+    <t>94,43%</t>
   </si>
   <si>
     <t>98,71%</t>
@@ -309,34 +303,28 @@
     <t>96,6%</t>
   </si>
   <si>
-    <t>99,59%</t>
-  </si>
-  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>5,49%</t>
+    <t>5,57%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>3,4%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,49%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -345,124 +333,124 @@
     <t>98,62%</t>
   </si>
   <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipertensión en 2016 (Tasa respuesta: 15,94%)</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipertensión en 2015 (Tasa respuesta: 15,94%)</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -501,37 +489,31 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>89,4%</t>
+    <t>89,2%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
     <t>7,06%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>10,6%</t>
+    <t>10,8%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -540,19 +522,19 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -561,10 +543,10 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>97,85%</t>
@@ -573,16 +555,16 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>84,03%</t>
+    <t>84,93%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -591,106 +573,106 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>15,97%</t>
+    <t>15,07%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>98,5%</t>
   </si>
   <si>
-    <t>94,77%</t>
+    <t>94,87%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>93,67%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>6,33%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,99%</t>
+    <t>99,25%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>3,01%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2853E42-DFE9-45A1-984F-125368289DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D420E46-27C0-45B6-B11D-B4D1F36E0C07}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1706,10 +1688,10 @@
         <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1706,13 @@
         <v>1885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1739,13 +1721,13 @@
         <v>6968</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -1754,13 +1736,13 @@
         <v>8854</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,7 +1798,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1831,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1843,10 +1825,10 @@
         <v>56767</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1858,10 +1840,10 @@
         <v>88886</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1885,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1894,13 +1876,13 @@
         <v>1107</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1909,13 +1891,13 @@
         <v>1107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,7 +1953,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1986,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2001,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2016,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -2040,7 +2022,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2055,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2070,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,7 +2108,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2138,10 +2120,10 @@
         <v>124123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -2156,7 +2138,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -2168,10 +2150,10 @@
         <v>284241</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -2189,13 +2171,13 @@
         <v>1334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2210,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2219,13 +2201,13 @@
         <v>1334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2263,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2293,10 +2275,10 @@
         <v>109164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2308,10 +2290,10 @@
         <v>136649</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2323,13 +2305,13 @@
         <v>245814</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2326,13 @@
         <v>1030</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2359,13 +2341,13 @@
         <v>2192</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2374,13 +2356,13 @@
         <v>3221</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2430,13 @@
         <v>566029</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H28" s="7">
         <v>680</v>
@@ -2463,13 +2445,13 @@
         <v>733970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>1195</v>
@@ -2478,13 +2460,13 @@
         <v>1299999</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2481,13 @@
         <v>7311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2514,13 +2496,13 @@
         <v>10267</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>17</v>
@@ -2529,13 +2511,13 @@
         <v>17578</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2573,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED6B50-49AC-4FAC-8623-10F9E199CFB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7F59D3-464D-4A1B-AC19-32BFAC85EA86}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2739,10 +2721,10 @@
         <v>33400</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2757,7 +2739,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -2769,10 +2751,10 @@
         <v>67535</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>14</v>
@@ -2790,13 +2772,13 @@
         <v>1403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2811,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2820,13 +2802,13 @@
         <v>1403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,10 +2876,10 @@
         <v>81695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2909,13 +2891,13 @@
         <v>111335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -2924,13 +2906,13 @@
         <v>193030</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2927,13 @@
         <v>1997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2960,13 +2942,13 @@
         <v>6859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -2975,13 +2957,13 @@
         <v>8856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3034,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3067,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3082,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3106,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3121,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3136,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3222,7 +3204,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3237,7 +3219,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3261,7 +3243,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3276,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3291,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3329,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3362,7 +3344,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3374,10 +3356,10 @@
         <v>42707</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3389,10 +3371,10 @@
         <v>69084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3416,7 +3398,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3425,13 +3407,13 @@
         <v>909</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3440,13 +3422,13 @@
         <v>909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3484,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3514,13 +3496,13 @@
         <v>33312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -3532,7 +3514,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3544,13 +3526,13 @@
         <v>80650</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3547,13 @@
         <v>2907</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3586,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3595,13 +3577,13 @@
         <v>2907</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,7 +3639,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3672,7 +3654,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3684,13 +3666,13 @@
         <v>92065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -3699,13 +3681,13 @@
         <v>186603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3735,13 +3717,13 @@
         <v>6590</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3750,13 +3732,13 @@
         <v>6590</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3794,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3824,10 +3806,10 @@
         <v>127575</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3839,13 +3821,13 @@
         <v>154351</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -3854,13 +3836,13 @@
         <v>281926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3857,13 @@
         <v>1938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3890,13 +3872,13 @@
         <v>4475</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -3905,13 +3887,13 @@
         <v>6413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3961,13 @@
         <v>505929</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>523</v>
@@ -3994,13 +3976,13 @@
         <v>610570</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>1023</v>
@@ -4009,13 +3991,13 @@
         <v>1116499</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4012,13 @@
         <v>8245</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -4045,13 +4027,13 @@
         <v>18833</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4060,13 +4042,13 @@
         <v>27078</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,7 +4104,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
